--- a/FotosMedidas/Medidas.xlsx
+++ b/FotosMedidas/Medidas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andry\Documents\GitHub\FotosMH\FotosMedidas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andry\OneDrive - Megabazar SpA\Documentos\GitHub\FotosMH\FotosMedidas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3449642-D40D-45FF-B3B2-8838E07156EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287E78B4-B7D8-4D36-956E-B3587161E77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -25,6 +25,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -191,12 +194,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -207,12 +216,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -585,127 +588,120 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8072300C-2004-442D-A692-809CCCFA06E4}">
   <dimension ref="B2:D16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="I18" sqref="I17:I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="6"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="3">
-        <v>34</v>
-      </c>
-      <c r="C4" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="3">
-        <v>35</v>
-      </c>
-      <c r="C5" s="3">
-        <f>C4+0.5</f>
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="3">
-        <v>36</v>
-      </c>
-      <c r="C6" s="3">
-        <f t="shared" ref="C6:C11" si="0">C5+0.5</f>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="3">
-        <v>37</v>
-      </c>
-      <c r="C7" s="3">
-        <f t="shared" si="0"/>
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
         <v>38</v>
       </c>
-      <c r="C8" s="3">
-        <f t="shared" si="0"/>
+      <c r="C5" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
         <v>39</v>
       </c>
-      <c r="C9" s="3">
-        <f t="shared" si="0"/>
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="3">
+      <c r="C6" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
         <v>40</v>
       </c>
-      <c r="C10" s="3">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="4">
+      <c r="C7" s="2">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
         <v>41</v>
       </c>
-      <c r="C11" s="4">
-        <f t="shared" si="0"/>
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="5" t="s">
+      <c r="C8" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>43</v>
+      </c>
+      <c r="C10" s="2">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="7" t="s">
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="7" t="s">
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="7" t="s">
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="9" t="s">
+      <c r="C15" s="10"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
